--- a/unique_list_Adapted.xlsx
+++ b/unique_list_Adapted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwieland\Desktop\GitHub\CE-Review_evidence_plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE41150-C8D6-4F82-A716-C917D82F343B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1087927-0D88-43CA-B8DE-F58FCC103873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measure_Group" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,7 @@
     <sheet name="Material_pot" sheetId="9" r:id="rId9"/>
     <sheet name="Energy_pot" sheetId="10" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sector!$A$1:$B$44</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="387">
   <si>
     <t>original_entry</t>
   </si>
@@ -93,7 +87,7 @@
     <t>NSCA</t>
   </si>
   <si>
-    <t>fill in individual measures scenaros!</t>
+    <t>NSD</t>
   </si>
   <si>
     <t>Narrow (N), Slow (S), Close (C)  and Decarbonization (D)</t>
@@ -120,9 +114,6 @@
     <t>NC</t>
   </si>
   <si>
-    <t>NSD</t>
-  </si>
-  <si>
     <t>SCD</t>
   </si>
   <si>
@@ -195,10 +186,16 @@
     <t>reduced_demand, improved_design, modal_shift,  recycle, speed-limit</t>
   </si>
   <si>
-    <t>cumulative 2016-2050 vs. BAU</t>
+    <t>improved_yields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifetime_extension, demand_reduction, decarbonisation </t>
   </si>
   <si>
     <t>-12%_demand</t>
+  </si>
+  <si>
+    <t>floor area reduction in buildings</t>
   </si>
   <si>
     <t>circular_agriculture, circular_construction, renewables, circular manufacturing</t>
@@ -307,9 +304,6 @@
     <t xml:space="preserve">decarbonization, CCU, demand_reduction, yield_improvement, recycling </t>
   </si>
   <si>
-    <t>improved_yields</t>
-  </si>
-  <si>
     <t>improved_yields in manufacturing</t>
   </si>
   <si>
@@ -323,6 +317,15 @@
 </t>
   </si>
   <si>
+    <t>recycling, improved_yields, reuse, increased_lifetime, material_substitution_refuse, improved_design</t>
+  </si>
+  <si>
+    <t>increased_lifetime</t>
+  </si>
+  <si>
+    <t>improved_yields, material_substitution_refuse, improved_design</t>
+  </si>
+  <si>
     <t>recycling, material_substitution</t>
   </si>
   <si>
@@ -335,7 +338,7 @@
     <t>recycle, substitute,heat_recovery</t>
   </si>
   <si>
-    <t>increased_lifetime</t>
+    <t>increased_lifetime, reuse</t>
   </si>
   <si>
     <t>-46% demand</t>
@@ -371,12 +374,18 @@
     <t>reduced steel demand of fossil infrastructure given low-carbon transition</t>
   </si>
   <si>
+    <t>increased_lifetime, improved_yields, reuse, recycling</t>
+  </si>
+  <si>
     <t>reduced_demand,material_substitution_auxiliary, low_carbon_energ, energetic_renovation, energetic_renovation (S2)</t>
   </si>
   <si>
     <t>improved_yields, extraction_taxes, demand_shift, decarbonization, climate_tax,CDR</t>
   </si>
   <si>
+    <t>material_substitution_refuse</t>
+  </si>
+  <si>
     <t>CO2 intensity improvements</t>
   </si>
   <si>
@@ -395,10 +404,19 @@
     <t>reduced concrete demand of fossil infrastructure given low-carbon transition</t>
   </si>
   <si>
+    <t>recycling, improved_yields, reuse, increased_lifetime, material_substitution_refuse, improved_design. More wood use</t>
+  </si>
+  <si>
+    <t>increased_lifetime, improved_yields, reuse, recycling, more intense use, using less material by design, SSP2</t>
+  </si>
+  <si>
     <t>recycling, fuel_switch, material_substitution</t>
   </si>
   <si>
     <t>reduced_demand, electrification</t>
+  </si>
+  <si>
+    <t>improved_design</t>
   </si>
   <si>
     <t>CO2 intensity improvements (ambitious)</t>
@@ -417,9 +435,15 @@
     <t>reduced copper demand of fossil infrastructure given low-carbon transition</t>
   </si>
   <si>
+    <t>increased_lifetime, improved_yields, reuse, recycling, more intense use, using less material by design, SSP1</t>
+  </si>
+  <si>
     <t>recycling, CCU</t>
   </si>
   <si>
+    <t>recycling, decarbonisation</t>
+  </si>
+  <si>
     <t>flex work half (transport)</t>
   </si>
   <si>
@@ -432,6 +456,12 @@
     <t>reduced aluminum demand of fossil infrastructure given low-carbon transition</t>
   </si>
   <si>
+    <t>increased_lifetime, improved_yields, reuse, recycling, more intense use, using less material by design, LMED</t>
+  </si>
+  <si>
+    <t>improved_yields, material_substitution_refuse, improved_design, increased_lifetime</t>
+  </si>
+  <si>
     <t>renovation</t>
   </si>
   <si>
@@ -441,11 +471,11 @@
     <t>reuse (direct reuse without remelting)</t>
   </si>
   <si>
-    <t>a) improved semi-manufacturing yields
-b) improved product manufacturing yields
-c) buildings - improved design and construction
-d) vehicles - lightweighting
-e) vehicles - reduced use f) buildings - extended lifetime (slow)
+    <t>a) improved semi-manufacturing yields_x000D_
+b) improved product manufacturing yields_x000D_
+c) buildings - improved design and construction_x000D_
+d) vehicles - lightweighting_x000D_
+e) vehicles - reduced use f) buildings - extended lifetime (slow)_x000D_
 g) direct reuse (without remelting) (slow)</t>
   </si>
   <si>
@@ -455,93 +485,90 @@
     <t>no</t>
   </si>
   <si>
-    <t>combined</t>
-  </si>
-  <si>
     <t>for some scenarios</t>
   </si>
   <si>
+    <t>economy-wide</t>
+  </si>
+  <si>
+    <t>plastics</t>
+  </si>
+  <si>
+    <t>steel and cement</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>bulk materials (ew)</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>residential buildings</t>
+  </si>
+  <si>
+    <t>bulk materials</t>
+  </si>
+  <si>
+    <t>copper (ew)</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>iron &amp; steel (ew)</t>
+  </si>
+  <si>
+    <t>buildings, vehicles, electrical machinery (ew)</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>iron and steel</t>
+  </si>
+  <si>
+    <t>households (ew)</t>
+  </si>
+  <si>
+    <t>economy-wide effects of measures in accommodation, transport and consumer durables sectors</t>
+  </si>
+  <si>
+    <t>waste management</t>
+  </si>
+  <si>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t>pulp and paper</t>
+  </si>
+  <si>
+    <t>aluminium</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>metals</t>
+  </si>
+  <si>
+    <t>iron &amp;amp; steel</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>building materials</t>
+  </si>
+  <si>
     <t>steel</t>
   </si>
   <si>
-    <t>economy-wide</t>
-  </si>
-  <si>
-    <t>plastics</t>
-  </si>
-  <si>
-    <t>steel and cement</t>
-  </si>
-  <si>
-    <t>buildings</t>
-  </si>
-  <si>
-    <t>bulk materials (ew)</t>
-  </si>
-  <si>
-    <t>cement</t>
-  </si>
-  <si>
-    <t>residential buildings</t>
-  </si>
-  <si>
-    <t>bulk materials</t>
-  </si>
-  <si>
-    <t>copper (ew)</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>iron &amp; steel (ew)</t>
-  </si>
-  <si>
-    <t>buildings, vehicles, electrical machinery (ew)</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>iron and steel</t>
-  </si>
-  <si>
-    <t>households (ew)</t>
-  </si>
-  <si>
-    <t>economy-wide effects of measures in accommodation, transport and consumer durables sectors</t>
-  </si>
-  <si>
-    <t>waste management</t>
-  </si>
-  <si>
-    <t>packaging</t>
-  </si>
-  <si>
-    <t>pulp and paper</t>
-  </si>
-  <si>
-    <t>aluminium</t>
-  </si>
-  <si>
-    <t>copper</t>
-  </si>
-  <si>
-    <t>metals</t>
-  </si>
-  <si>
-    <t>iron &amp;amp; steel</t>
-  </si>
-  <si>
-    <t>chemicals</t>
-  </si>
-  <si>
-    <t>building materials</t>
-  </si>
-  <si>
     <t>appliances (washing machines)</t>
   </si>
   <si>
@@ -551,150 +578,168 @@
     <t>fossil industry</t>
   </si>
   <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>aviation</t>
+  </si>
+  <si>
+    <t>building stock</t>
+  </si>
+  <si>
+    <t>iron ore</t>
+  </si>
+  <si>
+    <t>road fright</t>
+  </si>
+  <si>
+    <t>aluminum</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t>iron&amp;amp;steel</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>2060 vs. 2020</t>
+  </si>
+  <si>
+    <t>vs. 2030 BAU</t>
+  </si>
+  <si>
+    <t>vs. 2050 BAU</t>
+  </si>
+  <si>
+    <t>vs. 2060 BAU</t>
+  </si>
+  <si>
     <t>2060 vs. 2018</t>
   </si>
   <si>
+    <t>vs. cum 2023-2060</t>
+  </si>
+  <si>
+    <t>2060 vs. BAU</t>
+  </si>
+  <si>
+    <t>counterfactual</t>
+  </si>
+  <si>
+    <t>cum 2000-2100 vs. BAU</t>
+  </si>
+  <si>
+    <t>2050 vs. BAU</t>
+  </si>
+  <si>
+    <t>2050 vs. 2020</t>
+  </si>
+  <si>
+    <t>cumulative 2016-2050 vs. BAU (SSP2)</t>
+  </si>
+  <si>
+    <t>cumulative 2019-50 vs. BAU</t>
+  </si>
+  <si>
+    <t>cumulative 2020-60 vs. BAU</t>
+  </si>
+  <si>
+    <t>vs. BAU</t>
+  </si>
+  <si>
+    <t>vs. 2011 BAU</t>
+  </si>
+  <si>
+    <t>2100 vs. 2005</t>
+  </si>
+  <si>
+    <t>2050 vs. 2013</t>
+  </si>
+  <si>
+    <t>vs. BAU 2007</t>
+  </si>
+  <si>
+    <t>2050 vs. 2010</t>
+  </si>
+  <si>
+    <t>vs. 2013 BAU</t>
+  </si>
+  <si>
+    <t>cumulative vs. BAU (2016 - 2030)</t>
+  </si>
+  <si>
+    <t>cumulative vs. BAU (2015 - 2050)</t>
+  </si>
+  <si>
+    <t>2050 vs. 2015</t>
+  </si>
+  <si>
+    <t>cumulative 2015-50 vs. BAU</t>
+  </si>
+  <si>
+    <t>cumulative vs. BAU (2014 vs. 2030)</t>
+  </si>
+  <si>
+    <t>vs. 2035 BAU</t>
+  </si>
+  <si>
+    <t>vs. 2008 BAU</t>
+  </si>
+  <si>
+    <t>vs. 2100 BAU</t>
+  </si>
+  <si>
+    <t>2050 vs. 2012</t>
+  </si>
+  <si>
+    <t>cumulative vs. BAU (2010 - 2100)</t>
+  </si>
+  <si>
+    <t>cum 2020-60 vs. BAU</t>
+  </si>
+  <si>
+    <t>2050 vs. 2000</t>
+  </si>
+  <si>
+    <t>vs. BAU 2006</t>
+  </si>
+  <si>
+    <t>vs. BAU 2010</t>
+  </si>
+  <si>
+    <t>vs. BAU 2015</t>
+  </si>
+  <si>
+    <t>vs. 2070 BAU</t>
+  </si>
+  <si>
+    <t>cumulative 2020-5050 vs BAU</t>
+  </si>
+  <si>
+    <t>cum. 2018-40</t>
+  </si>
+  <si>
+    <t>cumulative vs BAU 2020-2050</t>
+  </si>
+  <si>
+    <t>annual vs. BAU 2100</t>
+  </si>
+  <si>
+    <t>vs. Cum 2050</t>
+  </si>
+  <si>
     <t>cum. 2020-60 vs. BAU</t>
   </si>
   <si>
-    <t>counterfactual</t>
-  </si>
-  <si>
-    <t>vs. 2011 BAU</t>
-  </si>
-  <si>
-    <t>2100 vs. 2005</t>
-  </si>
-  <si>
     <t>cumulative vs. BAU (2010 - 2050)</t>
   </si>
   <si>
-    <t>vs. 2050 BAU</t>
-  </si>
-  <si>
-    <t>building stock</t>
-  </si>
-  <si>
-    <t>iron ore</t>
-  </si>
-  <si>
-    <t>2050 vs. BAU</t>
-  </si>
-  <si>
-    <t>aluminum</t>
-  </si>
-  <si>
-    <t>iron&amp;amp;steel</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>2060 vs. 2020</t>
-  </si>
-  <si>
-    <t>vs. 2030 BAU</t>
-  </si>
-  <si>
-    <t>vs. 2060 BAU</t>
-  </si>
-  <si>
-    <t>vs. cum 2023-2060</t>
-  </si>
-  <si>
-    <t>2060 vs. BAU</t>
-  </si>
-  <si>
-    <t>cum 2000-2100 vs. BAU</t>
-  </si>
-  <si>
-    <t>2050 vs. 2020</t>
-  </si>
-  <si>
-    <t>cumulative 2019-50 vs. BAU</t>
-  </si>
-  <si>
-    <t>vs. BAU</t>
-  </si>
-  <si>
-    <t>2050 vs. 2013</t>
-  </si>
-  <si>
-    <t>vs. BAU 2007</t>
-  </si>
-  <si>
-    <t>2050 vs. 2010</t>
-  </si>
-  <si>
-    <t>vs. 2013 BAU</t>
-  </si>
-  <si>
-    <t>cumulative vs. BAU (2016 - 2030)</t>
-  </si>
-  <si>
-    <t>cumulative vs. BAU (2015 - 2050)</t>
-  </si>
-  <si>
-    <t>2050 vs. 2015</t>
-  </si>
-  <si>
-    <t>cumulative 2015-50 vs. BAU</t>
-  </si>
-  <si>
-    <t>cumulative vs. BAU (2014 vs. 2030)</t>
-  </si>
-  <si>
-    <t>vs. 2035 BAU</t>
-  </si>
-  <si>
-    <t>vs. 2008 BAU</t>
-  </si>
-  <si>
-    <t>vs. 2100 BAU</t>
-  </si>
-  <si>
-    <t>2050 vs. 2012</t>
-  </si>
-  <si>
-    <t>cumulative vs. BAU (2010 - 2100)</t>
-  </si>
-  <si>
-    <t>cum 2020-60 vs. BAU</t>
-  </si>
-  <si>
-    <t>2050 vs. 2000</t>
-  </si>
-  <si>
-    <t>vs. BAU 2006</t>
-  </si>
-  <si>
-    <t>vs. BAU 2010</t>
-  </si>
-  <si>
-    <t>vs. BAU 2015</t>
-  </si>
-  <si>
-    <t>vs. 2070 BAU</t>
-  </si>
-  <si>
-    <t>cum. 2018-40</t>
-  </si>
-  <si>
-    <t>vs. Cum 2050</t>
-  </si>
-  <si>
-    <t>aviation</t>
-  </si>
-  <si>
-    <t>road fright</t>
-  </si>
-  <si>
     <t>2020-2060 vs. BAU (is this interpreted correctly? @Jan)</t>
   </si>
   <si>
-    <t>shipping</t>
-  </si>
-  <si>
     <t>2019 vs. 2050</t>
   </si>
   <si>
@@ -743,12 +788,18 @@
     <t>-0.04</t>
   </si>
   <si>
-    <t>0.15</t>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-0.9</t>
   </si>
   <si>
     <t>0.33</t>
   </si>
   <si>
+    <t>0.35</t>
+  </si>
+  <si>
     <t>-0.499</t>
   </si>
   <si>
@@ -848,9 +899,18 @@
     <t>-0.75</t>
   </si>
   <si>
+    <t>-0.5</t>
+  </si>
+  <si>
     <t>-0.54028436018957349</t>
   </si>
   <si>
+    <t>-8.9999999999999993E-3</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
     <t>-0.49</t>
   </si>
   <si>
@@ -896,6 +956,9 @@
     <t>-0.52</t>
   </si>
   <si>
+    <t>-0.56000000000000005</t>
+  </si>
+  <si>
     <t>-0.33</t>
   </si>
   <si>
@@ -923,27 +986,42 @@
     <t>-3.2000000000000001E-2</t>
   </si>
   <si>
+    <t>-0.45</t>
+  </si>
+  <si>
+    <t>-0.114</t>
+  </si>
+  <si>
+    <t>-0.11700000000000001</t>
+  </si>
+  <si>
     <t>0.48</t>
   </si>
   <si>
-    <t>-0.5</t>
-  </si>
-  <si>
     <t>-8.4000000000000005E-2</t>
   </si>
   <si>
     <t>-0.47</t>
   </si>
   <si>
+    <t>-0.313</t>
+  </si>
+  <si>
+    <t>-0.47099999999999997</t>
+  </si>
+  <si>
     <t>-5.7000000000000002E-2</t>
   </si>
   <si>
-    <t>-0.21</t>
-  </si>
-  <si>
     <t>-0.15</t>
   </si>
   <si>
+    <t>-0.44</t>
+  </si>
+  <si>
+    <t>-0.79</t>
+  </si>
+  <si>
     <t>-0.28999999999999998</t>
   </si>
   <si>
@@ -962,9 +1040,6 @@
     <t>-0.40500000000000003</t>
   </si>
   <si>
-    <t>-0.56000000000000005</t>
-  </si>
-  <si>
     <t>0.1</t>
   </si>
   <si>
@@ -980,9 +1055,6 @@
     <t>-0.14000000000000001</t>
   </si>
   <si>
-    <t>-0.01</t>
-  </si>
-  <si>
     <t>-0.28000000000000003</t>
   </si>
   <si>
@@ -1022,6 +1094,9 @@
     <t>-0.97</t>
   </si>
   <si>
+    <t>-0.46</t>
+  </si>
+  <si>
     <t>-0.13</t>
   </si>
   <si>
@@ -1031,12 +1106,12 @@
     <t>-0.99</t>
   </si>
   <si>
+    <t>-0.61</t>
+  </si>
+  <si>
     <t>1.4999999999999999E-2</t>
   </si>
   <si>
-    <t>-0.9</t>
-  </si>
-  <si>
     <t>6.9000000000000006E-2</t>
   </si>
   <si>
@@ -1061,6 +1136,9 @@
     <t>0.23</t>
   </si>
   <si>
+    <t>-0.48</t>
+  </si>
+  <si>
     <t>Willi please fill in original cols to left</t>
   </si>
   <si>
@@ -1073,6 +1151,9 @@
     <t>0.31</t>
   </si>
   <si>
+    <t>-0.51</t>
+  </si>
+  <si>
     <t>-0.63</t>
   </si>
   <si>
@@ -1094,28 +1175,40 @@
     <t>Narrow</t>
   </si>
   <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Auxiliary</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Slow</t>
+    <t>new_grouping_aggregate</t>
+  </si>
+  <si>
+    <t>plastics and packaging</t>
   </si>
   <si>
     <t>materials</t>
   </si>
   <si>
-    <t>BAU</t>
-  </si>
-  <si>
-    <t>cumulative</t>
-  </si>
-  <si>
-    <t>new_grouping_aggregate</t>
-  </si>
-  <si>
-    <t>Auxiliary</t>
-  </si>
-  <si>
-    <t>base year</t>
+    <t>energy sector</t>
+  </si>
+  <si>
+    <t>household appliances</t>
+  </si>
+  <si>
+    <t>pulp, paper and wood</t>
+  </si>
+  <si>
+    <t>vs base year</t>
+  </si>
+  <si>
+    <t>vs BAU</t>
+  </si>
+  <si>
+    <t>vs cumulative</t>
   </si>
 </sst>
 </file>
@@ -1177,510 +1270,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tabelle1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Economy-wide</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Economy-Wide Assessment</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>economy-wide</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>economy-wide</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Plastics</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>plastics and packaging</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Steel and cement</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Building and Construction</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>bulk materials</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Buildings</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Building and Construction</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>buildings</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>buildings</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Bulk materials (ew)</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Economy-Wide Assessment</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>bulk materials</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Cement</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>bulk materials</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Residential buildings</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Building and Construction</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>buildings</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>buildings</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Bulk materials</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>bulk materials</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Copper (ew)</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Economy-Wide Assessment</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>copper</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Transport</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Industrial Sectors</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>transport</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>transport</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Energy</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Industrial Sectors</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>energy sector</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>energy sector</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Iron &amp; steel (ew)</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>Economy-Wide Assessment</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>iron and steel</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Buildings, vehicles, electrical machinery (ew)</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Economy-Wide Assessment</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>economy-wide</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Industry</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>Industrial Sectors</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>industry</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Iron and steel</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>iron and steel</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Households (ew)</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>Economy-Wide Assessment</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>household appliances</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>economy-wide</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Economy-wide effects of measures in accommodation, transport, and consumer durables sectors</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>Economy-Wide Assessment</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>economy-wide</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>economy-wide</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Waste management</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>Industrial Sectors</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>waste management</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>waste management</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Packaging</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>Industrial Sectors</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>plastics and packaging</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Pulp and paper</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>pulp, paper and wood</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Aluminium</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>aluminium</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Copper</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>copper</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Metals</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>metals</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Iron &amp; steel</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>iron and steel</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Chemicals</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>Industrial Sectors</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>chemicals</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Building materials</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>Building and Construction</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>bulk materials</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Steel</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>iron and steel</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Appliances (washing machines)</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>Specific Products/Applications</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>household appliances</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>economy-wide</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Wood</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>pulp, paper and wood</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Fossil industry</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>Industrial Sectors</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>energy sector</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>energy sector</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Building stock</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>Building and Construction</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>buildings</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>buildings</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Iron ore</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>iron and steel</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Aluminum</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>aluminium</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Iron&amp;steel</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>iron and steel</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Paper</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>Materials</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>pulp, paper and wood</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>materials</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1962,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1991,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1999,7 +1588,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2007,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2015,7 +1604,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2023,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2031,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2039,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2047,7 +1636,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2055,7 +1644,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2063,7 +1652,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2071,7 +1660,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2079,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2087,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2095,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,7 +1692,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2111,7 +1700,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2119,7 +1708,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2127,7 +1716,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2135,7 +1724,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2143,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2151,7 +1740,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2159,7 +1748,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2167,7 +1756,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2175,7 +1764,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2183,7 +1772,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2191,7 +1780,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2199,7 +1788,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2207,7 +1796,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2215,7 +1804,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2223,15 +1812,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2242,7 +1823,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2258,152 +1839,162 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>338</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>300</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2414,11 +2005,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2432,487 +2021,552 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2923,11 +2577,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2941,26 +2593,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" t="s">
-        <v>346</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2973,9 +2611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2989,18 +2625,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3011,11 +2641,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3029,34 +2657,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>346</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3067,17 +2678,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3088,548 +2698,439 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="str">
-        <f>VLOOKUP($A2,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>economy-wide</v>
-      </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(A2,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>economy-wide</v>
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" t="str">
-        <f>VLOOKUP(A3,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>plastics and packaging</v>
-      </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(A3,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" t="str">
-        <f>VLOOKUP(A4,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>bulk materials</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(A4,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" t="str">
-        <f>VLOOKUP(A5,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>buildings</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(A5,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>buildings</v>
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" t="str">
-        <f>VLOOKUP(A6,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>bulk materials</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(A6,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" t="str">
-        <f>VLOOKUP(A7,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>bulk materials</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(A7,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="str">
-        <f>VLOOKUP(A8,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>buildings</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(A8,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>buildings</v>
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" t="str">
-        <f>VLOOKUP(A9,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>bulk materials</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(A9,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="str">
-        <f>VLOOKUP(A10,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>copper</v>
-      </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(A10,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" t="str">
-        <f>VLOOKUP(A11,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>transport</v>
-      </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(A11,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>transport</v>
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" t="str">
-        <f>VLOOKUP(A12,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>energy sector</v>
-      </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(A12,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>energy sector</v>
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" t="str">
-        <f>VLOOKUP(A13,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>iron and steel</v>
-      </c>
-      <c r="C13" t="str">
-        <f>VLOOKUP(A13,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" t="str">
-        <f>VLOOKUP(A14,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>economy-wide</v>
-      </c>
-      <c r="C14" t="str">
-        <f>VLOOKUP(A14,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" t="str">
-        <f>VLOOKUP(A15,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>industry</v>
-      </c>
-      <c r="C15" t="str">
-        <f>VLOOKUP(A15,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" t="str">
-        <f>VLOOKUP(A16,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>iron and steel</v>
-      </c>
-      <c r="C16" t="str">
-        <f>VLOOKUP(A16,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" t="str">
-        <f>VLOOKUP(A17,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>household appliances</v>
-      </c>
-      <c r="C17" t="str">
-        <f>VLOOKUP(A17,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>economy-wide</v>
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" t="str">
-        <f>VLOOKUP(A19,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>waste management</v>
-      </c>
-      <c r="C19" t="str">
-        <f>VLOOKUP(A19,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>waste management</v>
+        <v>163</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" t="str">
-        <f>VLOOKUP(A20,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>plastics and packaging</v>
-      </c>
-      <c r="C20" t="str">
-        <f>VLOOKUP(A20,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>164</v>
+      </c>
+      <c r="B20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" t="str">
-        <f>VLOOKUP(A21,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>pulp, paper and wood</v>
-      </c>
-      <c r="C21" t="str">
-        <f>VLOOKUP(A21,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" t="str">
-        <f>VLOOKUP(A22,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>aluminium</v>
-      </c>
-      <c r="C22" t="str">
-        <f>VLOOKUP(A22,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" t="str">
-        <f>VLOOKUP(A23,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>copper</v>
-      </c>
-      <c r="C23" t="str">
-        <f>VLOOKUP(A23,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>167</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" t="str">
-        <f>VLOOKUP(A24,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>metals</v>
-      </c>
-      <c r="C24" t="str">
-        <f>VLOOKUP(A24,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>160</v>
-      </c>
-      <c r="B26" t="str">
-        <f>VLOOKUP(A26,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>chemicals</v>
-      </c>
-      <c r="C26" t="str">
-        <f>VLOOKUP(A26,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" t="str">
-        <f>VLOOKUP(A27,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>bulk materials</v>
-      </c>
-      <c r="C27" t="str">
-        <f>VLOOKUP(A27,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>171</v>
+      </c>
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" t="str">
-        <f>VLOOKUP(A28,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>iron and steel</v>
-      </c>
-      <c r="C28" t="str">
-        <f>VLOOKUP(A28,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>172</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" t="str">
-        <f>VLOOKUP(A29,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>household appliances</v>
-      </c>
-      <c r="C29" t="str">
-        <f>VLOOKUP(A29,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>economy-wide</v>
+        <v>173</v>
+      </c>
+      <c r="B29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30" t="str">
-        <f>VLOOKUP(A30,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>pulp, paper and wood</v>
-      </c>
-      <c r="C30" t="str">
-        <f>VLOOKUP(A30,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>174</v>
+      </c>
+      <c r="B30" t="s">
+        <v>383</v>
+      </c>
+      <c r="C30" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" t="str">
-        <f>VLOOKUP(A31,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>energy sector</v>
-      </c>
-      <c r="C31" t="str">
-        <f>VLOOKUP(A31,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>energy sector</v>
+        <v>175</v>
+      </c>
+      <c r="B31" t="s">
+        <v>381</v>
+      </c>
+      <c r="C31" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
-        <v>346</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>346</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>346</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>346</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>346</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>346</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
-        <v>346</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>346</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>346</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
-        <v>346</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>346</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" t="str">
-        <f>VLOOKUP(A39,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>buildings</v>
-      </c>
-      <c r="C39" t="str">
-        <f>VLOOKUP(A39,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>buildings</v>
+        <v>183</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>173</v>
-      </c>
-      <c r="B40" t="str">
-        <f>VLOOKUP(A40,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>iron and steel</v>
-      </c>
-      <c r="C40" t="str">
-        <f>VLOOKUP(A40,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" t="s">
-        <v>346</v>
-      </c>
-      <c r="C41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" t="str">
-        <f>VLOOKUP(A42,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>aluminium</v>
-      </c>
-      <c r="C42" t="str">
-        <f>VLOOKUP(A42,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>176</v>
-      </c>
-      <c r="B43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" t="str">
-        <f>VLOOKUP(A44,[1]Tabelle1!$A$2:$C$36,3,FALSE)</f>
-        <v>pulp, paper and wood</v>
-      </c>
-      <c r="C44" t="str">
-        <f>VLOOKUP(A44,[1]Tabelle1!$A$2:$D$36,4,FALSE)</f>
-        <v>materials</v>
+        <v>184</v>
+      </c>
+      <c r="B40" t="s">
+        <v>383</v>
+      </c>
+      <c r="C40" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B44" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3637,15 +3138,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:C47"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3658,418 +3157,378 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B12" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B31" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="B43" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="B46" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B48" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>212</v>
-      </c>
-      <c r="B51" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>175</v>
-      </c>
-      <c r="B52" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>213</v>
-      </c>
-      <c r="B53" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4080,7 +3539,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4096,422 +3555,477 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>297</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4522,7 +4036,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4538,22 +4052,22 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4563,212 +4077,227 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>238</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>256</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>286</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>327</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/unique_list_Adapted.xlsx
+++ b/unique_list_Adapted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwieland\Desktop\GitHub\CE-Review_evidence_plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1087927-0D88-43CA-B8DE-F58FCC103873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B678F238-E6E7-4396-89AF-4544BFCDC4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measure_Group" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Material_pot" sheetId="9" r:id="rId9"/>
     <sheet name="Energy_pot" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,6 +33,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="388">
   <si>
     <t>original_entry</t>
   </si>
@@ -90,51 +92,42 @@
     <t>NSD</t>
   </si>
   <si>
-    <t>Narrow (N), Slow (S), Close (C)  and Decarbonization (D)</t>
+    <t>NSA</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>S, C</t>
+    <t>SCD</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>NSC</t>
   </si>
   <si>
     <t>NSCAD</t>
   </si>
   <si>
+    <t>NCDA</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
-    <t>SCD</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
-    <t>NCDA</t>
-  </si>
-  <si>
-    <t>NSA</t>
-  </si>
-  <si>
     <t>Strong CE scenario</t>
   </si>
   <si>
     <t>AD</t>
   </si>
   <si>
-    <t>N, S</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -198,6 +191,15 @@
     <t>floor area reduction in buildings</t>
   </si>
   <si>
+    <t>2060 vs. current</t>
+  </si>
+  <si>
+    <t>reduced_demand, decarbonization</t>
+  </si>
+  <si>
+    <t>improved_yields, recycle</t>
+  </si>
+  <si>
     <t>circular_agriculture, circular_construction, renewables, circular manufacturing</t>
   </si>
   <si>
@@ -219,9 +221,6 @@
     <t>Share Repair Manufactured Products</t>
   </si>
   <si>
-    <t>energy_efficiency</t>
-  </si>
-  <si>
     <t>low-level: efficient_products, sharing, lifetime_extension, intensive_use</t>
   </si>
   <si>
@@ -241,9 +240,6 @@
   </si>
   <si>
     <t>improved_yields, improved_design, energy_efficiency, decarbonisation</t>
-  </si>
-  <si>
-    <t>demand_shift</t>
   </si>
   <si>
     <t xml:space="preserve">reduced_demand, decarbonisation, recycling
@@ -301,6 +297,9 @@
     <t>intensive_use (wahsing machine), decarbonization</t>
   </si>
   <si>
+    <t>CCU, decarbonization</t>
+  </si>
+  <si>
     <t xml:space="preserve">decarbonization, CCU, demand_reduction, yield_improvement, recycling </t>
   </si>
   <si>
@@ -308,15 +307,15 @@
   </si>
   <si>
     <t>reduction in GHGs due to reduced material demand of fossil infrastructure given low-carbon transition</t>
-  </si>
-  <si>
-    <t>climate_tax</t>
   </si>
   <si>
     <t xml:space="preserve">yield improvements in basic materials secotrs + resource tax, demand reduction and demand shift
 </t>
   </si>
   <si>
+    <t>recycle, decarbonize</t>
+  </si>
+  <si>
     <t>recycling, improved_yields, reuse, increased_lifetime, material_substitution_refuse, improved_design</t>
   </si>
   <si>
@@ -344,7 +343,7 @@
     <t>-46% demand</t>
   </si>
   <si>
-    <t>extending_lifetime, more_intensive_use</t>
+    <t>extending_lifetime, more_intensive_use_vehicles</t>
   </si>
   <si>
     <t>medium-level measures for improved_yields, reduced_demand, intensive_use</t>
@@ -387,6 +386,12 @@
   </si>
   <si>
     <t>CO2 intensity improvements</t>
+  </si>
+  <si>
+    <t>lifetime extensions</t>
+  </si>
+  <si>
+    <t>more_intensive_use_vehicles</t>
   </si>
   <si>
     <t>high-level measures for improved_yields, reduced_demand, intensive_use</t>
@@ -438,12 +443,18 @@
     <t>increased_lifetime, improved_yields, reuse, recycling, more intense use, using less material by design, SSP1</t>
   </si>
   <si>
+    <t>recycle, decarbonization</t>
+  </si>
+  <si>
     <t>recycling, CCU</t>
   </si>
   <si>
     <t>recycling, decarbonisation</t>
   </si>
   <si>
+    <t>lightweighting</t>
+  </si>
+  <si>
     <t>flex work half (transport)</t>
   </si>
   <si>
@@ -465,7 +476,13 @@
     <t>renovation</t>
   </si>
   <si>
+    <t>lifetime extension of buildings</t>
+  </si>
+  <si>
     <t>reduced energy demand of fossil infrastructure given low-carbon transition</t>
+  </si>
+  <si>
+    <t>material substitution: wood</t>
   </si>
   <si>
     <t>reuse (direct reuse without remelting)</t>
@@ -479,6 +496,15 @@
 g) direct reuse (without remelting) (slow)</t>
   </si>
   <si>
+    <t>decarbonize material production</t>
+  </si>
+  <si>
+    <t>energy efficiency of material production</t>
+  </si>
+  <si>
+    <t>intensive use, lifetime extension, lightweighting, material substitution, recycling, decarbonization of material production, process energy efficiency</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
@@ -524,684 +550,657 @@
     <t>iron &amp; steel (ew)</t>
   </si>
   <si>
+    <t>buildings embodied emissions of bulk materials</t>
+  </si>
+  <si>
+    <t>bulk material industries</t>
+  </si>
+  <si>
     <t>buildings, vehicles, electrical machinery (ew)</t>
   </si>
   <si>
     <t>industry</t>
   </si>
   <si>
+    <t>economy-wide (for household products and vehicles)</t>
+  </si>
+  <si>
+    <t>economy-wide effects of measures in accommodation, transport and consumer durables sectors</t>
+  </si>
+  <si>
     <t>iron and steel</t>
   </si>
   <si>
-    <t>households (ew)</t>
-  </si>
-  <si>
-    <t>economy-wide effects of measures in accommodation, transport and consumer durables sectors</t>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t>pulp and paper</t>
+  </si>
+  <si>
+    <t>aluminium</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>metals</t>
+  </si>
+  <si>
+    <t>iron &amp;amp; steel</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>building materials</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>appliances (washing machines)</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>fossil industry</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>aviation</t>
+  </si>
+  <si>
+    <t>building stock</t>
+  </si>
+  <si>
+    <t>iron ore</t>
+  </si>
+  <si>
+    <t>road fright</t>
+  </si>
+  <si>
+    <t>aluminum</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t>iron&amp;amp;steel</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>2060 vs. 2020</t>
+  </si>
+  <si>
+    <t>vs. 2030 BAU</t>
+  </si>
+  <si>
+    <t>vs. 2050 BAU</t>
+  </si>
+  <si>
+    <t>vs. 2060 BAU</t>
+  </si>
+  <si>
+    <t>2060 vs. 2018</t>
+  </si>
+  <si>
+    <t>vs. cum 2023-2060</t>
+  </si>
+  <si>
+    <t>2060 vs. BAU</t>
+  </si>
+  <si>
+    <t>counterfactual</t>
+  </si>
+  <si>
+    <t>cum 2000-2100 vs. BAU</t>
+  </si>
+  <si>
+    <t>2050 vs. BAU</t>
+  </si>
+  <si>
+    <t>2050 vs. 2020</t>
+  </si>
+  <si>
+    <t>cumulative 2016-2050 vs. BAU (SSP2)</t>
+  </si>
+  <si>
+    <t>cumulative 2019-50 vs. BAU</t>
+  </si>
+  <si>
+    <t>cumulative 2020-60 vs. BAU</t>
+  </si>
+  <si>
+    <t>cumulative 2015-2100 vs. BAU</t>
+  </si>
+  <si>
+    <t>vs. BAU</t>
+  </si>
+  <si>
+    <t>vs. 2011 BAU</t>
+  </si>
+  <si>
+    <t>2100 vs. 2005</t>
+  </si>
+  <si>
+    <t>2050 vs. 2013</t>
+  </si>
+  <si>
+    <t>vs. BAU 2007</t>
+  </si>
+  <si>
+    <t>vs. 2013 BAU</t>
+  </si>
+  <si>
+    <t>cumulative vs. BAU (2016 - 2030)</t>
+  </si>
+  <si>
+    <t>cumulative vs. BAU (2015 - 2050)</t>
+  </si>
+  <si>
+    <t>2050 vs. 2015</t>
+  </si>
+  <si>
+    <t>2030 vs. 2008</t>
+  </si>
+  <si>
+    <t>cumulative 2015-50 vs. BAU</t>
+  </si>
+  <si>
+    <t>cumulative vs. BAU (2014 vs. 2030)</t>
+  </si>
+  <si>
+    <t>vs. 2035 BAU</t>
+  </si>
+  <si>
+    <t>vs. 2008 BAU</t>
+  </si>
+  <si>
+    <t>vs. 2100 BAU</t>
+  </si>
+  <si>
+    <t>2050 vs. 2012</t>
+  </si>
+  <si>
+    <t>cumulative vs. BAU (2010 - 2100)</t>
+  </si>
+  <si>
+    <t>cum 2020-60 vs. BAU</t>
+  </si>
+  <si>
+    <t>vs. 2030 BAU%</t>
+  </si>
+  <si>
+    <t>2050 vs. 2000</t>
+  </si>
+  <si>
+    <t>vs. BAU 2006</t>
+  </si>
+  <si>
+    <t>vs. BAU 2010</t>
+  </si>
+  <si>
+    <t>vs. BAU 2015</t>
+  </si>
+  <si>
+    <t>cumulative 2020-5050 vs BAU</t>
+  </si>
+  <si>
+    <t>cum. 2018-40</t>
+  </si>
+  <si>
+    <t>cumulative vs BAU 2020-2050</t>
+  </si>
+  <si>
+    <t>annual vs. BAU 2100</t>
+  </si>
+  <si>
+    <t>cum 2020-50 vs. BAU</t>
+  </si>
+  <si>
+    <t>vs. Cum 2050</t>
+  </si>
+  <si>
+    <t>cum. 2020-60 vs. BAU</t>
+  </si>
+  <si>
+    <t>cumulative vs. BAU (2010 - 2050)</t>
+  </si>
+  <si>
+    <t>2020-2060 vs. BAU (is this interpreted correctly? @Jan)</t>
+  </si>
+  <si>
+    <t>2019 vs. 2050</t>
+  </si>
+  <si>
+    <t>-0.8</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>-0.59</t>
+  </si>
+  <si>
+    <t>-0.94</t>
+  </si>
+  <si>
+    <t>-0.193</t>
+  </si>
+  <si>
+    <t>-0.82</t>
+  </si>
+  <si>
+    <t>-0.81</t>
+  </si>
+  <si>
+    <t>-0.87</t>
+  </si>
+  <si>
+    <t>-7.0000000000000007E-2</t>
+  </si>
+  <si>
+    <t>-0.3</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>-0.23</t>
+  </si>
+  <si>
+    <t>-0.83</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-0.9</t>
+  </si>
+  <si>
+    <t>-0.33</t>
+  </si>
+  <si>
+    <t>-0.28999999999999998</t>
+  </si>
+  <si>
+    <t>-0.71</t>
+  </si>
+  <si>
+    <t>-0.37</t>
+  </si>
+  <si>
+    <t>-0.86</t>
+  </si>
+  <si>
+    <t>-0.499</t>
+  </si>
+  <si>
+    <t>-6.9000000000000006E-2</t>
+  </si>
+  <si>
+    <t>-0.95</t>
+  </si>
+  <si>
+    <t>-0.31</t>
+  </si>
+  <si>
+    <t>-3.6999999999999998E-2</t>
+  </si>
+  <si>
+    <t>-3.0000000000000001E-3</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.7</t>
+  </si>
+  <si>
+    <t>-0.22</t>
+  </si>
+  <si>
+    <t>-0.76</t>
+  </si>
+  <si>
+    <t>-0.74</t>
+  </si>
+  <si>
+    <t>-0.89</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>-2.5000000000000001E-2</t>
+  </si>
+  <si>
+    <t>-0.34</t>
+  </si>
+  <si>
+    <t>-0.55000000000000004</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>-0.6</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-0.24</t>
+  </si>
+  <si>
+    <t>-0.56000000000000005</t>
+  </si>
+  <si>
+    <t>-0.64</t>
+  </si>
+  <si>
+    <t>-0.96</t>
+  </si>
+  <si>
+    <t>-6.2E-2</t>
+  </si>
+  <si>
+    <t>-0.4</t>
+  </si>
+  <si>
+    <t>-0.77</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.42</t>
+  </si>
+  <si>
+    <t>-0.91</t>
+  </si>
+  <si>
+    <t>-0.41</t>
+  </si>
+  <si>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>-0.54028436018957349</t>
+  </si>
+  <si>
+    <t>-8.9999999999999993E-3</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>-0.28000000000000003</t>
+  </si>
+  <si>
+    <t>-0.49</t>
+  </si>
+  <si>
+    <t>-0.46810000000000002</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.47</t>
+  </si>
+  <si>
+    <t>-0.10100000000000001</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>-0.16800000000000001</t>
+  </si>
+  <si>
+    <t>-1.4E-2</t>
+  </si>
+  <si>
+    <t>-0.27</t>
+  </si>
+  <si>
+    <t>-0.57999999999999996</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>-0.73</t>
+  </si>
+  <si>
+    <t>-0.52</t>
+  </si>
+  <si>
+    <t>-0.51770000000000005</t>
+  </si>
+  <si>
+    <t>-0.43</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-5.2999999999999999E-2</t>
+  </si>
+  <si>
+    <t>-0.85</t>
+  </si>
+  <si>
+    <t>-0.39</t>
+  </si>
+  <si>
+    <t>-2.3E-2</t>
+  </si>
+  <si>
+    <t>-3.2000000000000001E-2</t>
+  </si>
+  <si>
+    <t>-0.45</t>
+  </si>
+  <si>
+    <t>-0.114</t>
+  </si>
+  <si>
+    <t>-0.11700000000000001</t>
+  </si>
+  <si>
+    <t>-0.48</t>
+  </si>
+  <si>
+    <t>-8.4000000000000005E-2</t>
+  </si>
+  <si>
+    <t>-0.313</t>
+  </si>
+  <si>
+    <t>-0.47099999999999997</t>
+  </si>
+  <si>
+    <t>-5.7000000000000002E-2</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.44</t>
+  </si>
+  <si>
+    <t>-0.79</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>-0.35599999999999998</t>
+  </si>
+  <si>
+    <t>-0.92</t>
+  </si>
+  <si>
+    <t>-0.40500000000000003</t>
+  </si>
+  <si>
+    <t>-0.33500000000000002</t>
+  </si>
+  <si>
+    <t>-8.6999999999999994E-2</t>
+  </si>
+  <si>
+    <t>-0.308</t>
+  </si>
+  <si>
+    <t>-0.14299999999999999</t>
+  </si>
+  <si>
+    <t>-0.65</t>
+  </si>
+  <si>
+    <t>-0.72</t>
+  </si>
+  <si>
+    <t>-3.3000000000000002E-2</t>
+  </si>
+  <si>
+    <t>-0.26</t>
+  </si>
+  <si>
+    <t>-0.20699999999999999</t>
+  </si>
+  <si>
+    <t>-0.58904109589041098</t>
+  </si>
+  <si>
+    <t>-0.35</t>
+  </si>
+  <si>
+    <t>-0.125</t>
+  </si>
+  <si>
+    <t>-0.97</t>
+  </si>
+  <si>
+    <t>-0.46</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-5.1999999999999998E-2</t>
+  </si>
+  <si>
+    <t>-2.7E-2</t>
+  </si>
+  <si>
+    <t>-0.99</t>
+  </si>
+  <si>
+    <t>-0.61</t>
+  </si>
+  <si>
+    <t>-1.4999999999999999E-2</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>-0.93</t>
+  </si>
+  <si>
+    <t>-3.5999999999999997E-2</t>
+  </si>
+  <si>
+    <t>-0.375</t>
+  </si>
+  <si>
+    <t>Willi please fill in original cols to left</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>-1E-3</t>
+  </si>
+  <si>
+    <t>-0.51</t>
+  </si>
+  <si>
+    <t>-0.63</t>
+  </si>
+  <si>
+    <t>-3.6200000000000003E-2</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Narrow</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Auxiliary</t>
+  </si>
+  <si>
+    <t>new_grouping_aggregate</t>
+  </si>
+  <si>
+    <t>energy/waste/transport</t>
+  </si>
+  <si>
+    <t>materials</t>
   </si>
   <si>
     <t>waste management</t>
   </si>
   <si>
-    <t>packaging</t>
-  </si>
-  <si>
-    <t>pulp and paper</t>
-  </si>
-  <si>
-    <t>aluminium</t>
-  </si>
-  <si>
-    <t>copper</t>
-  </si>
-  <si>
-    <t>metals</t>
-  </si>
-  <si>
-    <t>iron &amp;amp; steel</t>
-  </si>
-  <si>
-    <t>chemicals</t>
-  </si>
-  <si>
-    <t>building materials</t>
-  </si>
-  <si>
-    <t>steel</t>
-  </si>
-  <si>
-    <t>appliances (washing machines)</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>fossil industry</t>
-  </si>
-  <si>
-    <t>concrete</t>
-  </si>
-  <si>
-    <t>aviation</t>
-  </si>
-  <si>
-    <t>building stock</t>
-  </si>
-  <si>
-    <t>iron ore</t>
-  </si>
-  <si>
-    <t>road fright</t>
-  </si>
-  <si>
-    <t>aluminum</t>
-  </si>
-  <si>
-    <t>shipping</t>
-  </si>
-  <si>
-    <t>iron&amp;amp;steel</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>2060 vs. 2020</t>
-  </si>
-  <si>
-    <t>vs. 2030 BAU</t>
-  </si>
-  <si>
-    <t>vs. 2050 BAU</t>
-  </si>
-  <si>
-    <t>vs. 2060 BAU</t>
-  </si>
-  <si>
-    <t>2060 vs. 2018</t>
-  </si>
-  <si>
-    <t>vs. cum 2023-2060</t>
-  </si>
-  <si>
-    <t>2060 vs. BAU</t>
-  </si>
-  <si>
-    <t>counterfactual</t>
-  </si>
-  <si>
-    <t>cum 2000-2100 vs. BAU</t>
-  </si>
-  <si>
-    <t>2050 vs. BAU</t>
-  </si>
-  <si>
-    <t>2050 vs. 2020</t>
-  </si>
-  <si>
-    <t>cumulative 2016-2050 vs. BAU (SSP2)</t>
-  </si>
-  <si>
-    <t>cumulative 2019-50 vs. BAU</t>
-  </si>
-  <si>
-    <t>cumulative 2020-60 vs. BAU</t>
-  </si>
-  <si>
-    <t>vs. BAU</t>
-  </si>
-  <si>
-    <t>vs. 2011 BAU</t>
-  </si>
-  <si>
-    <t>2100 vs. 2005</t>
-  </si>
-  <si>
-    <t>2050 vs. 2013</t>
-  </si>
-  <si>
-    <t>vs. BAU 2007</t>
-  </si>
-  <si>
-    <t>2050 vs. 2010</t>
-  </si>
-  <si>
-    <t>vs. 2013 BAU</t>
-  </si>
-  <si>
-    <t>cumulative vs. BAU (2016 - 2030)</t>
-  </si>
-  <si>
-    <t>cumulative vs. BAU (2015 - 2050)</t>
-  </si>
-  <si>
-    <t>2050 vs. 2015</t>
-  </si>
-  <si>
-    <t>cumulative 2015-50 vs. BAU</t>
-  </si>
-  <si>
-    <t>cumulative vs. BAU (2014 vs. 2030)</t>
-  </si>
-  <si>
-    <t>vs. 2035 BAU</t>
-  </si>
-  <si>
-    <t>vs. 2008 BAU</t>
-  </si>
-  <si>
-    <t>vs. 2100 BAU</t>
-  </si>
-  <si>
-    <t>2050 vs. 2012</t>
-  </si>
-  <si>
-    <t>cumulative vs. BAU (2010 - 2100)</t>
-  </si>
-  <si>
-    <t>cum 2020-60 vs. BAU</t>
-  </si>
-  <si>
-    <t>2050 vs. 2000</t>
-  </si>
-  <si>
-    <t>vs. BAU 2006</t>
-  </si>
-  <si>
-    <t>vs. BAU 2010</t>
-  </si>
-  <si>
-    <t>vs. BAU 2015</t>
-  </si>
-  <si>
-    <t>vs. 2070 BAU</t>
-  </si>
-  <si>
-    <t>cumulative 2020-5050 vs BAU</t>
-  </si>
-  <si>
-    <t>cum. 2018-40</t>
-  </si>
-  <si>
-    <t>cumulative vs BAU 2020-2050</t>
-  </si>
-  <si>
-    <t>annual vs. BAU 2100</t>
-  </si>
-  <si>
-    <t>vs. Cum 2050</t>
-  </si>
-  <si>
-    <t>cum. 2020-60 vs. BAU</t>
-  </si>
-  <si>
-    <t>cumulative vs. BAU (2010 - 2050)</t>
-  </si>
-  <si>
-    <t>2020-2060 vs. BAU (is this interpreted correctly? @Jan)</t>
-  </si>
-  <si>
-    <t>2019 vs. 2050</t>
-  </si>
-  <si>
-    <t>-0.8</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>-0.59</t>
-  </si>
-  <si>
-    <t>-0.94</t>
-  </si>
-  <si>
-    <t>-0.193</t>
-  </si>
-  <si>
-    <t>-0.82</t>
-  </si>
-  <si>
-    <t>-0.81</t>
-  </si>
-  <si>
-    <t>-0.87</t>
-  </si>
-  <si>
-    <t>-7.0000000000000007E-2</t>
-  </si>
-  <si>
-    <t>-0.3</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>-0.23</t>
-  </si>
-  <si>
-    <t>-0.83</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.9</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>-0.499</t>
-  </si>
-  <si>
-    <t>-6.9000000000000006E-2</t>
-  </si>
-  <si>
-    <t>-0.95</t>
-  </si>
-  <si>
-    <t>-0.31</t>
-  </si>
-  <si>
-    <t>-3.6999999999999998E-2</t>
-  </si>
-  <si>
-    <t>-3.0000000000000001E-3</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.7</t>
-  </si>
-  <si>
-    <t>-0.22</t>
-  </si>
-  <si>
-    <t>-0.76</t>
-  </si>
-  <si>
-    <t>-0.74</t>
-  </si>
-  <si>
-    <t>-0.89</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-2.5000000000000001E-2</t>
-  </si>
-  <si>
-    <t>-0.34</t>
-  </si>
-  <si>
-    <t>-0.55000000000000004</t>
-  </si>
-  <si>
-    <t>-0.25</t>
-  </si>
-  <si>
-    <t>-0.6</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.24</t>
-  </si>
-  <si>
-    <t>-0.64</t>
-  </si>
-  <si>
-    <t>-0.96</t>
-  </si>
-  <si>
-    <t>-6.2E-2</t>
-  </si>
-  <si>
-    <t>-0.4</t>
-  </si>
-  <si>
-    <t>-0.77</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-0.42</t>
-  </si>
-  <si>
-    <t>-0.91</t>
-  </si>
-  <si>
-    <t>-0.71</t>
-  </si>
-  <si>
-    <t>-0.75</t>
-  </si>
-  <si>
-    <t>-0.5</t>
-  </si>
-  <si>
-    <t>-0.54028436018957349</t>
-  </si>
-  <si>
-    <t>-8.9999999999999993E-3</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>-0.49</t>
-  </si>
-  <si>
-    <t>-0.46810000000000002</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>-0.10100000000000001</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>-0.16800000000000001</t>
-  </si>
-  <si>
-    <t>-1.4E-2</t>
-  </si>
-  <si>
-    <t>-0.27</t>
-  </si>
-  <si>
-    <t>-0.57999999999999996</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>-0.73</t>
-  </si>
-  <si>
-    <t>-0.52</t>
-  </si>
-  <si>
-    <t>-0.56000000000000005</t>
-  </si>
-  <si>
-    <t>-0.33</t>
-  </si>
-  <si>
-    <t>-0.51770000000000005</t>
-  </si>
-  <si>
-    <t>-0.43</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.28999999999999998</t>
-  </si>
-  <si>
-    <t>-0.85</t>
-  </si>
-  <si>
-    <t>-0.39</t>
-  </si>
-  <si>
-    <t>-2.3E-2</t>
-  </si>
-  <si>
-    <t>-3.2000000000000001E-2</t>
-  </si>
-  <si>
-    <t>-0.45</t>
-  </si>
-  <si>
-    <t>-0.114</t>
-  </si>
-  <si>
-    <t>-0.11700000000000001</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>-8.4000000000000005E-2</t>
-  </si>
-  <si>
-    <t>-0.47</t>
-  </si>
-  <si>
-    <t>-0.313</t>
-  </si>
-  <si>
-    <t>-0.47099999999999997</t>
-  </si>
-  <si>
-    <t>-5.7000000000000002E-2</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.44</t>
-  </si>
-  <si>
-    <t>-0.79</t>
-  </si>
-  <si>
-    <t>-0.28999999999999998</t>
-  </si>
-  <si>
-    <t>3.3000000000000002E-2</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>-0.35599999999999998</t>
-  </si>
-  <si>
-    <t>-0.92</t>
-  </si>
-  <si>
-    <t>-0.40500000000000003</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>-0.33500000000000002</t>
-  </si>
-  <si>
-    <t>-8.6999999999999994E-2</t>
-  </si>
-  <si>
-    <t>-0.41</t>
-  </si>
-  <si>
-    <t>-0.14000000000000001</t>
-  </si>
-  <si>
-    <t>-0.28000000000000003</t>
-  </si>
-  <si>
-    <t>-0.308</t>
-  </si>
-  <si>
-    <t>-0.14299999999999999</t>
-  </si>
-  <si>
-    <t>-0.65</t>
-  </si>
-  <si>
-    <t>-0.72</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>-0.20699999999999999</t>
-  </si>
-  <si>
-    <t>-0.58904109589041098</t>
-  </si>
-  <si>
-    <t>-0.35</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>-0.125</t>
-  </si>
-  <si>
-    <t>2.5000000000000001E-2</t>
-  </si>
-  <si>
-    <t>-0.97</t>
-  </si>
-  <si>
-    <t>-0.46</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>2.7E-2</t>
-  </si>
-  <si>
-    <t>-0.99</t>
-  </si>
-  <si>
-    <t>-0.61</t>
-  </si>
-  <si>
-    <t>1.4999999999999999E-2</t>
-  </si>
-  <si>
-    <t>6.9000000000000006E-2</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>-0.37</t>
-  </si>
-  <si>
-    <t>-0.93</t>
-  </si>
-  <si>
-    <t>-3.5999999999999997E-2</t>
-  </si>
-  <si>
-    <t>-0.375</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>-0.48</t>
-  </si>
-  <si>
-    <t>Willi please fill in original cols to left</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>-1E-3</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>-0.51</t>
-  </si>
-  <si>
-    <t>-0.63</t>
-  </si>
-  <si>
-    <t>-3.6200000000000003E-2</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>Combined</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Narrow</t>
-  </si>
-  <si>
-    <t>Slow</t>
-  </si>
-  <si>
-    <t>Auxiliary</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>new_grouping_aggregate</t>
-  </si>
-  <si>
     <t>plastics and packaging</t>
   </si>
   <si>
-    <t>materials</t>
-  </si>
-  <si>
     <t>energy sector</t>
   </si>
   <si>
+    <t>pulp, paper and wood</t>
+  </si>
+  <si>
     <t>household appliances</t>
   </si>
   <si>
-    <t>pulp, paper and wood</t>
-  </si>
-  <si>
     <t>vs base year</t>
   </si>
   <si>
@@ -1209,6 +1208,12 @@
   </si>
   <si>
     <t>vs cumulative</t>
+  </si>
+  <si>
+    <t>Combined(incl. Auxiliary)</t>
+  </si>
+  <si>
+    <t>Combined(excl. Auxiliary)</t>
   </si>
 </sst>
 </file>
@@ -1551,19 +1556,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1572,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,7 +1588,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1596,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1604,7 +1612,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,7 +1620,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,7 +1628,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1628,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,7 +1644,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1644,7 +1652,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,7 +1676,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +1684,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +1692,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +1700,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,7 +1708,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1716,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1724,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,7 +1732,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1732,7 +1740,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,7 +1748,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1748,7 +1756,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1756,7 +1764,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +1772,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>372</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,7 +1780,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +1788,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,31 +1796,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -1823,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1839,162 +1823,147 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +1974,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2021,552 +1990,607 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2593,12 +2617,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2625,12 +2649,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2657,17 +2681,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2678,7 +2702,490 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" t="s">
+        <v>381</v>
+      </c>
+      <c r="C32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" t="s">
+        <v>380</v>
+      </c>
+      <c r="C33" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" t="s">
+        <v>381</v>
+      </c>
+      <c r="C42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2686,465 +3193,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" t="s">
-        <v>381</v>
-      </c>
-      <c r="C12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" t="s">
-        <v>382</v>
-      </c>
-      <c r="C17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" t="s">
-        <v>379</v>
-      </c>
-      <c r="C20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" t="s">
-        <v>383</v>
-      </c>
-      <c r="C21" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" t="s">
-        <v>382</v>
-      </c>
-      <c r="C29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" t="s">
-        <v>383</v>
-      </c>
-      <c r="C30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" t="s">
-        <v>381</v>
-      </c>
-      <c r="C31" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>179</v>
-      </c>
-      <c r="B35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>182</v>
-      </c>
-      <c r="B38" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>184</v>
-      </c>
-      <c r="B40" t="s">
-        <v>383</v>
-      </c>
-      <c r="C40" t="s">
-        <v>380</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,119 +3207,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
         <v>385</v>
@@ -3277,47 +3327,47 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s">
         <v>384</v>
@@ -3325,55 +3375,55 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s">
         <v>385</v>
@@ -3381,23 +3431,23 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B32" t="s">
         <v>384</v>
@@ -3405,87 +3455,87 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B35" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B37" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B43" t="s">
         <v>385</v>
@@ -3493,42 +3543,58 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B44" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s">
-        <v>384</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3539,7 +3605,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3555,477 +3621,467 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4036,7 +4092,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4052,252 +4108,247 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>345</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
